--- a/template/potem30.xlsx
+++ b/template/potem30.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C375557-BA96-4E4D-B08B-E6EB889E2C49}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D073BD-F78B-4D14-8FC4-803F1A1DDF41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="465" windowWidth="37380" windowHeight="21135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -510,18 +510,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="44">
@@ -1053,16 +1047,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1073,67 +1064,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1282,69 +1219,49 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1396,38 +1313,125 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1995,8 +1999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1"/>
@@ -2012,15 +2016,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
-      <c r="A1" s="103"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="87"/>
+      <c r="A1" s="102"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="104"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2040,17 +2044,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="12" customHeight="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="87"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="104"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2070,17 +2074,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="87"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="104"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2100,17 +2104,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12" customHeight="1">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="87"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="104"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2130,17 +2134,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12" customHeight="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="87"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2160,17 +2164,17 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2195,9 +2199,9 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2218,1205 +2222,1205 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1">
-      <c r="A9" s="102"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="12" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1">
-      <c r="A11" s="102"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="12" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="12" customHeight="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="14.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="14.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="84" t="s">
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="85"/>
-      <c r="I19" s="10" t="s">
+      <c r="H19" s="118"/>
+      <c r="I19" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="14.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="114"/>
+      <c r="B25" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13" t="s">
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="14.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="18" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
+      <c r="A29" s="100"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="114" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-    </row>
-    <row r="36" spans="1:26" s="26" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A36" s="28" t="s">
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A36" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-    </row>
-    <row r="38" spans="1:26" s="23" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="24"/>
-    </row>
-    <row r="39" spans="1:26" s="82" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="81"/>
-      <c r="V39" s="81"/>
-      <c r="W39" s="81"/>
-      <c r="X39" s="81"/>
-      <c r="Y39" s="81"/>
-      <c r="Z39" s="81"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A38" s="114"/>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+    </row>
+    <row r="39" spans="1:26" s="60" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A39" s="114"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
+      <c r="B40" s="135"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="135"/>
+      <c r="H40" s="135"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="12" customHeight="1">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
+      <c r="B43" s="122"/>
+      <c r="C43" s="122"/>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100"/>
+      <c r="E48" s="100"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="100"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3436,15 +3440,15 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="15.75">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="100"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="100"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3464,15 +3468,15 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="15.75">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="94"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3492,15 +3496,15 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="15.75">
-      <c r="A52" s="4"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="100"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3520,15 +3524,15 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="100"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3548,15 +3552,15 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="30" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="100"/>
+      <c r="F54" s="100"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="100"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3576,15 +3580,15 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="12" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="94"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="100"/>
+      <c r="C55" s="100"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="141"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3604,15 +3608,15 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="15.75">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3632,15 +3636,15 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="15.75">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="99"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -3660,15 +3664,15 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="15.75">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="A58" s="99"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="99"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3688,15 +3692,15 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="15.75">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="99"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3716,15 +3720,15 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="99"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -30149,16 +30153,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="C28:I28"/>
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="G22:H22"/>
@@ -30175,12 +30175,16 @@
     <mergeCell ref="B36:H36"/>
     <mergeCell ref="B40:H41"/>
     <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="C28:H29"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -30199,565 +30203,563 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
     </row>
     <row r="3" spans="1:22" ht="16.5" thickBot="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="110" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="111" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
     </row>
     <row r="4" spans="1:22" ht="15.75">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="117" t="s">
+      <c r="D4" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="33"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="113"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="105" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="106"/>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="79"/>
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="35" t="s">
+      <c r="K5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="35" t="s">
+      <c r="S5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="V5" s="39" t="s">
+      <c r="V5" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="53"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="34"/>
     </row>
     <row r="7" spans="1:22" ht="15.75">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="53"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="34"/>
     </row>
     <row r="8" spans="1:22" ht="15.75">
-      <c r="A8" s="40"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="53"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="34"/>
     </row>
     <row r="9" spans="1:22" ht="15.75">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="53"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="34"/>
     </row>
     <row r="10" spans="1:22" ht="15.75">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="53"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="34"/>
     </row>
     <row r="11" spans="1:22" ht="15.75">
-      <c r="A11" s="55"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="53"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="34"/>
     </row>
     <row r="12" spans="1:22" ht="15.75">
-      <c r="A12" s="55"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="58"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="53"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="34"/>
     </row>
     <row r="13" spans="1:22" ht="15.75">
-      <c r="A13" s="55"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="53"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="38"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="34"/>
     </row>
     <row r="14" spans="1:22" ht="15.75">
-      <c r="A14" s="55"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="53"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="34"/>
     </row>
     <row r="15" spans="1:22" ht="15.75">
-      <c r="A15" s="55"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="53"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="34"/>
     </row>
     <row r="16" spans="1:22" ht="15.75">
-      <c r="A16" s="55"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="53"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="34"/>
     </row>
     <row r="17" spans="1:22" ht="15.75">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="129" t="s">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="126"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="126"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="126"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="126"/>
-      <c r="V17" s="128"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="72"/>
     </row>
     <row r="18" spans="1:22" ht="15.75">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="129" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="127"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="126"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="126"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="126"/>
-      <c r="V18" s="128"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="72"/>
     </row>
     <row r="19" spans="1:22" ht="15.75">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="129" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="133"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="126"/>
-      <c r="T19" s="127"/>
-      <c r="U19" s="126"/>
-      <c r="V19" s="128"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="72"/>
     </row>
     <row r="20" spans="1:22" ht="16.5" thickBot="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="138" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="135"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="134"/>
-      <c r="P20" s="135"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="136"/>
-      <c r="V20" s="137"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:T3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="U17:V17"/>
@@ -30774,22 +30776,24 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:P17"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:T3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/potem30.xlsx
+++ b/template/potem30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D073BD-F78B-4D14-8FC4-803F1A1DDF41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA76700-4846-45F1-BE16-8BD4A9D6DA3F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="465" windowWidth="37380" windowHeight="21135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>PURCHASE  ORDER</t>
-  </si>
-  <si>
-    <t>Supplier：(     )</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -375,6 +372,10 @@
   </si>
   <si>
     <t>5-</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supplier:</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1223,11 +1224,129 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1313,126 +1432,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2016,15 +2017,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
-      <c r="A1" s="102"/>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="104"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -2044,17 +2045,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="12" customHeight="1">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="104"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2074,17 +2075,17 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12" customHeight="1">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="89"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -2104,17 +2105,17 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12" customHeight="1">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="104"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2134,17 +2135,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12" customHeight="1">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="89"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2164,17 +2165,17 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2199,9 +2200,9 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2222,20 +2223,20 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="12" customHeight="1">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="100" t="s">
+      <c r="G8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="100"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -2256,14 +2257,14 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12" customHeight="1">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="100"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -2289,9 +2290,9 @@
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -2312,14 +2313,14 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="12" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -2368,10 +2369,10 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="12" customHeight="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -2396,15 +2397,15 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="12" customHeight="1">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2424,15 +2425,15 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="12" customHeight="1">
-      <c r="A15" s="108"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2452,15 +2453,15 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="12" customHeight="1">
-      <c r="A16" s="110"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2480,15 +2481,15 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2508,17 +2509,17 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="14.25">
-      <c r="A18" s="110" t="s">
-        <v>11</v>
+      <c r="A18" s="66" t="s">
+        <v>10</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2538,20 +2539,20 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="14.25">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="117" t="s">
+      <c r="H19" s="103"/>
+      <c r="I19" s="69" t="s">
         <v>13</v>
-      </c>
-      <c r="H19" s="118"/>
-      <c r="I19" s="116" t="s">
-        <v>14</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2572,15 +2573,15 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="8.25" customHeight="1">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2600,15 +2601,15 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="14.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="121"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2628,15 +2629,15 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="100"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="100"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -2656,15 +2657,15 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="100"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2684,15 +2685,15 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2712,21 +2713,21 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="114" t="s">
+      <c r="A25" s="67"/>
+      <c r="B25" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124" t="s">
+      <c r="G25" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="125" t="s">
-        <v>22</v>
-      </c>
-      <c r="H25" s="126"/>
-      <c r="I25" s="114"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="67"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2746,15 +2747,15 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="14.25">
-      <c r="A26" s="127"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="114"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="67"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2774,15 +2775,15 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="18" customHeight="1">
-      <c r="A27" s="114"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="114"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="67"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2802,8 +2803,8 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A28" s="100"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="143"/>
       <c r="D28" s="143"/>
       <c r="E28" s="143"/>
@@ -2830,15 +2831,15 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A29" s="100"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="100"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2858,15 +2859,15 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A30" s="100"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2886,17 +2887,17 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A31" s="100" t="s">
-        <v>23</v>
+      <c r="A31" s="62" t="s">
+        <v>22</v>
       </c>
-      <c r="B31" s="100"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2916,17 +2917,17 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A32" s="114" t="s">
-        <v>24</v>
+      <c r="A32" s="67" t="s">
+        <v>23</v>
       </c>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="100"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2946,17 +2947,17 @@
       <c r="Z32" s="3"/>
     </row>
     <row r="33" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A33" s="114" t="s">
-        <v>25</v>
+      <c r="A33" s="67" t="s">
+        <v>24</v>
       </c>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="100"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2976,17 +2977,17 @@
       <c r="Z33" s="3"/>
     </row>
     <row r="34" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A34" s="114" t="s">
-        <v>26</v>
+      <c r="A34" s="67" t="s">
+        <v>25</v>
       </c>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="100"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3006,17 +3007,17 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A35" s="114" t="s">
-        <v>27</v>
+      <c r="A35" s="67" t="s">
+        <v>26</v>
       </c>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
-      <c r="H35" s="135"/>
-      <c r="I35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3036,17 +3037,17 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A36" s="114" t="s">
-        <v>41</v>
+      <c r="A36" s="67" t="s">
+        <v>40</v>
       </c>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="100"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="62"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -3066,15 +3067,15 @@
       <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A37" s="114"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="100"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3094,15 +3095,15 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A38" s="114"/>
-      <c r="B38" s="100"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
@@ -3122,15 +3123,15 @@
       <c r="Z38" s="7"/>
     </row>
     <row r="39" spans="1:26" s="60" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A39" s="114"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="59"/>
       <c r="K39" s="59"/>
       <c r="L39" s="59"/>
@@ -3150,17 +3151,17 @@
       <c r="Z39" s="59"/>
     </row>
     <row r="40" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A40" s="114" t="s">
-        <v>28</v>
+      <c r="A40" s="67" t="s">
+        <v>27</v>
       </c>
-      <c r="B40" s="135"/>
-      <c r="C40" s="135"/>
-      <c r="D40" s="135"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="135"/>
-      <c r="H40" s="135"/>
-      <c r="I40" s="100"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="62"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3180,15 +3181,15 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A41" s="114"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="100"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="62"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3208,17 +3209,17 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A42" s="114" t="s">
-        <v>28</v>
+      <c r="A42" s="67" t="s">
+        <v>27</v>
       </c>
-      <c r="B42" s="122"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3238,17 +3239,17 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="12" customHeight="1">
-      <c r="A43" s="100" t="s">
-        <v>29</v>
+      <c r="A43" s="62" t="s">
+        <v>28</v>
       </c>
-      <c r="B43" s="122"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="100"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="62"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3268,15 +3269,15 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A44" s="114"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3296,15 +3297,15 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A45" s="100"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3324,15 +3325,15 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A46" s="100"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3352,19 +3353,19 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A47" s="100" t="s">
+      <c r="A47" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3384,15 +3385,15 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="13.5" customHeight="1">
-      <c r="A48" s="100"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3412,15 +3413,15 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75">
-      <c r="A49" s="100"/>
-      <c r="B49" s="100"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3440,15 +3441,15 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="15.75">
-      <c r="A50" s="100"/>
-      <c r="B50" s="100"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="100"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -3468,15 +3469,15 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="15.75">
-      <c r="A51" s="100"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="107"/>
-      <c r="I51" s="107"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="94"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -3496,15 +3497,15 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" spans="1:26" ht="15.75">
-      <c r="A52" s="100"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
+      <c r="A52" s="62"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -3524,15 +3525,15 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A53" s="100"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="100"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="107"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="94"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3552,15 +3553,15 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" spans="1:26" ht="30" customHeight="1">
-      <c r="A54" s="100"/>
-      <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3580,15 +3581,15 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" spans="1:26" ht="12" customHeight="1">
-      <c r="A55" s="100"/>
-      <c r="B55" s="100"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="141"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="107"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="95"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3608,15 +3609,15 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" spans="1:26" ht="15.75">
-      <c r="A56" s="100"/>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -3636,15 +3637,15 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="15.75">
-      <c r="A57" s="99"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="99"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -3664,15 +3665,15 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="15.75">
-      <c r="A58" s="99"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="99"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3692,15 +3693,15 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="15.75">
-      <c r="A59" s="99"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="99"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3720,15 +3721,15 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75">
-      <c r="A60" s="99"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -30203,175 +30204,175 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" thickBot="1">
+      <c r="A3" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="62"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-    </row>
-    <row r="3" spans="1:22" ht="16.5" thickBot="1">
-      <c r="A3" s="81" t="s">
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="83" t="s">
+      <c r="F3" s="126"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="84" t="s">
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75">
+      <c r="A4" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-    </row>
-    <row r="4" spans="1:22" ht="15.75">
-      <c r="A4" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="94"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="92"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="136"/>
       <c r="U4" s="13"/>
       <c r="V4" s="14"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="86"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="78" t="s">
+      <c r="A5" s="130"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="123"/>
+      <c r="F5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>18</v>
+      <c r="M5" s="18" t="s">
+        <v>16</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="N5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="19" t="s">
-        <v>18</v>
+      <c r="O5" s="16" t="s">
+        <v>16</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="P5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="17" t="s">
-        <v>18</v>
+      <c r="Q5" s="16" t="s">
+        <v>16</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="R5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="17" t="s">
-        <v>18</v>
+      <c r="S5" s="16" t="s">
+        <v>16</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="T5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="17" t="s">
-        <v>18</v>
-      </c>
       <c r="U5" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V5" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75">
@@ -30643,104 +30644,104 @@
       <c r="B17" s="43"/>
       <c r="C17" s="44"/>
       <c r="D17" s="45"/>
-      <c r="E17" s="73" t="s">
-        <v>37</v>
+      <c r="E17" s="117" t="s">
+        <v>36</v>
       </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="72"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="116"/>
     </row>
     <row r="18" spans="1:22" ht="15.75">
       <c r="A18" s="46"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
       <c r="D18" s="48"/>
-      <c r="E18" s="73" t="s">
-        <v>38</v>
+      <c r="E18" s="117" t="s">
+        <v>37</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="72"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="114"/>
+      <c r="R18" s="115"/>
+      <c r="S18" s="114"/>
+      <c r="T18" s="115"/>
+      <c r="U18" s="114"/>
+      <c r="V18" s="116"/>
     </row>
     <row r="19" spans="1:22" ht="15.75">
       <c r="A19" s="49"/>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
-      <c r="E19" s="73" t="s">
-        <v>39</v>
+      <c r="E19" s="117" t="s">
+        <v>38</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="72"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="118"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="118"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="115"/>
+      <c r="U19" s="114"/>
+      <c r="V19" s="116"/>
     </row>
     <row r="20" spans="1:22" ht="16.5" thickBot="1">
       <c r="A20" s="52"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
       <c r="D20" s="54"/>
-      <c r="E20" s="68" t="s">
-        <v>40</v>
+      <c r="E20" s="112" t="s">
+        <v>39</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="65"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="109"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="109"/>
       <c r="Q20" s="55"/>
       <c r="R20" s="56"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="67"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="50">

--- a/template/potem30.xlsx
+++ b/template/potem30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D54F96-037B-4E00-AB1F-50C14E5EE4CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C626E71B-ED99-4A47-96CF-3DC91B12F491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="465" windowWidth="37380" windowHeight="21135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="合同" sheetId="4" r:id="rId1"/>
@@ -21,19 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
-  <si>
-    <t>Flat D,3/F, Ka Wing Fty Bldg.,</t>
-  </si>
-  <si>
-    <t>19-21Ng Fong Street,San Po Kong,</t>
-  </si>
-  <si>
-    <t>Kowloon,Hong Kong</t>
-  </si>
-  <si>
-    <t>TEL ：00852-23290335ext 28   Fax:852-2726 3821</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>PURCHASE  ORDER</t>
   </si>
@@ -1280,62 +1268,96 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,40 +1406,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1986,88 +1974,80 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25">
-      <c r="A1" s="99"/>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+    <row r="1" spans="1:9" ht="33">
+      <c r="A1" s="100"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
       <c r="I1" s="82"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="91"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="91"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="82"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="91"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="82"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="91"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="82"/>
+    </row>
+    <row r="6" spans="1:9" ht="24">
+      <c r="A6" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="82"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="82"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="82"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="82"/>
-    </row>
-    <row r="6" spans="1:9" ht="23.25">
-      <c r="A6" s="100" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+    </row>
+    <row r="7" spans="1:9" ht="16">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2079,26 +2059,26 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="101" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
+      <c r="A8" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="75" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="75" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H8" s="75"/>
       <c r="I8" s="53"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
+    <row r="9" spans="1:9" ht="16">
+      <c r="A9" s="96"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="3"/>
       <c r="E9" s="53"/>
       <c r="F9" s="75"/>
@@ -2106,7 +2086,7 @@
       <c r="H9" s="75"/>
       <c r="I9" s="53"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" s="74"/>
       <c r="B10" s="74"/>
       <c r="C10" s="74"/>
@@ -2117,18 +2097,18 @@
       <c r="H10" s="75"/>
       <c r="I10" s="53"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
+    <row r="11" spans="1:9" ht="16">
+      <c r="A11" s="96"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="53"/>
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
       <c r="H11" s="75"/>
       <c r="I11" s="53"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="74"/>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
@@ -2139,18 +2119,18 @@
       <c r="H12" s="53"/>
       <c r="I12" s="53"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
+    <row r="13" spans="1:9" ht="16">
+      <c r="A13" s="96"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
       <c r="I13" s="53"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
@@ -2161,7 +2141,7 @@
       <c r="H14" s="75"/>
       <c r="I14" s="75"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" s="56"/>
       <c r="B15" s="56"/>
       <c r="C15" s="56"/>
@@ -2196,12 +2176,12 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="81"/>
+        <v>6</v>
+      </c>
+      <c r="B18" s="97"/>
       <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="84"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="99"/>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
       <c r="H18" s="77"/>
@@ -2209,19 +2189,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="58" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" s="58"/>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
-      <c r="G19" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="80"/>
+      <c r="G19" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="89"/>
       <c r="I19" s="78" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2242,27 +2222,27 @@
       <c r="D21" s="75"/>
       <c r="E21" s="75"/>
       <c r="F21" s="59"/>
-      <c r="G21" s="92"/>
+      <c r="G21" s="90"/>
       <c r="H21" s="82"/>
       <c r="I21" s="60"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="75"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="82"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
       <c r="I22" s="75"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="75"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="82"/>
       <c r="G23" s="75"/>
       <c r="H23" s="75"/>
@@ -2282,16 +2262,16 @@
     <row r="25" spans="1:9">
       <c r="A25" s="77"/>
       <c r="B25" s="77" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C25" s="77"/>
       <c r="D25" s="77"/>
       <c r="E25" s="61"/>
       <c r="F25" s="61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G25" s="62" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H25" s="63"/>
       <c r="I25" s="77"/>
@@ -2321,13 +2301,13 @@
     <row r="28" spans="1:9">
       <c r="A28" s="75"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="75"/>
@@ -2353,7 +2333,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="75" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
@@ -2366,78 +2346,78 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
+        <v>19</v>
+      </c>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
       <c r="I32" s="75"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
+        <v>20</v>
+      </c>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
       <c r="I33" s="75"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
+        <v>21</v>
+      </c>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
       <c r="I34" s="75"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
+        <v>22</v>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
       <c r="I35" s="75"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
+        <v>36</v>
+      </c>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
       <c r="I36" s="75"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="77"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
       <c r="I37" s="75"/>
     </row>
     <row r="38" spans="1:9">
@@ -2464,35 +2444,35 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
+        <v>23</v>
+      </c>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
       <c r="I40" s="75"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="77"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
       <c r="I41" s="75"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="93"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
+        <v>23</v>
+      </c>
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
       <c r="E42" s="82"/>
       <c r="F42" s="75"/>
       <c r="G42" s="75"/>
@@ -2501,12 +2481,12 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="93"/>
-      <c r="C43" s="93"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
+        <v>24</v>
+      </c>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
       <c r="F43" s="71"/>
       <c r="G43" s="71"/>
       <c r="H43" s="72"/>
@@ -2547,13 +2527,13 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="75" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
       <c r="D47" s="75"/>
       <c r="E47" s="75" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F47" s="75"/>
       <c r="G47" s="75"/>
@@ -2600,31 +2580,31 @@
       <c r="D51" s="75"/>
       <c r="E51" s="75"/>
       <c r="F51" s="75"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="75"/>
-      <c r="B52" s="95"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
       <c r="F52" s="75"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="75"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
       <c r="F53" s="75"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="75"/>
@@ -2639,6 +2619,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B36:H36"/>
     <mergeCell ref="B40:H41"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B43:E43"/>
@@ -2646,30 +2650,6 @@
     <mergeCell ref="B52:E53"/>
     <mergeCell ref="G52:I52"/>
     <mergeCell ref="G53:I53"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2684,181 +2664,181 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="104" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="A1" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="98"/>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-    </row>
-    <row r="3" spans="1:22" ht="16.5" thickBot="1">
-      <c r="A3" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+    </row>
+    <row r="3" spans="1:22" ht="17" thickBot="1">
+      <c r="A3" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="106"/>
+      <c r="E3" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="120"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="108" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
+      <c r="I3" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75">
-      <c r="A4" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="119"/>
-      <c r="N4" s="120"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="116"/>
+    <row r="4" spans="1:22" ht="16">
+      <c r="A4" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="128" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="133"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="130"/>
       <c r="U4" s="7"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="110"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="102" t="s">
+    <row r="5" spans="1:22" ht="16">
+      <c r="A5" s="124"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="117"/>
+      <c r="F5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="V5" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
@@ -2882,7 +2862,7 @@
       <c r="U6" s="25"/>
       <c r="V6" s="28"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75">
+    <row r="7" spans="1:22" ht="16">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -2906,7 +2886,7 @@
       <c r="U7" s="25"/>
       <c r="V7" s="28"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75">
+    <row r="8" spans="1:22" ht="16">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
@@ -2930,7 +2910,7 @@
       <c r="U8" s="25"/>
       <c r="V8" s="28"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75">
+    <row r="9" spans="1:22" ht="16">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -2954,7 +2934,7 @@
       <c r="U9" s="25"/>
       <c r="V9" s="28"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75">
+    <row r="10" spans="1:22" ht="16">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
@@ -2978,7 +2958,7 @@
       <c r="U10" s="25"/>
       <c r="V10" s="28"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="16">
       <c r="A11" s="30"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -3002,7 +2982,7 @@
       <c r="U11" s="25"/>
       <c r="V11" s="28"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="12" spans="1:22" ht="16">
       <c r="A12" s="30"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -3026,7 +3006,7 @@
       <c r="U12" s="25"/>
       <c r="V12" s="28"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75">
+    <row r="13" spans="1:22" ht="16">
       <c r="A13" s="30"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -3050,7 +3030,7 @@
       <c r="U13" s="25"/>
       <c r="V13" s="28"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75">
+    <row r="14" spans="1:22" ht="16">
       <c r="A14" s="30"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -3074,7 +3054,7 @@
       <c r="U14" s="25"/>
       <c r="V14" s="28"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75">
+    <row r="15" spans="1:22" ht="16">
       <c r="A15" s="30"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -3098,7 +3078,7 @@
       <c r="U15" s="25"/>
       <c r="V15" s="28"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75">
+    <row r="16" spans="1:22" ht="16">
       <c r="A16" s="30"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -3122,130 +3102,128 @@
       <c r="U16" s="25"/>
       <c r="V16" s="28"/>
     </row>
-    <row r="17" spans="1:22" ht="15.75">
+    <row r="17" spans="1:22" ht="16">
       <c r="A17" s="36"/>
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="126" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="124"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="125"/>
-    </row>
-    <row r="18" spans="1:22" ht="15.75">
+      <c r="E17" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="109"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="109"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="109"/>
+      <c r="U17" s="108"/>
+      <c r="V17" s="110"/>
+    </row>
+    <row r="18" spans="1:22" ht="16">
       <c r="A18" s="40"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="42"/>
-      <c r="E18" s="126" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="124"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="128"/>
-      <c r="N18" s="124"/>
-      <c r="O18" s="128"/>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="124"/>
-      <c r="S18" s="123"/>
-      <c r="T18" s="124"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="125"/>
-    </row>
-    <row r="19" spans="1:22" ht="15.75">
+      <c r="E18" s="111" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="109"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="109"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="109"/>
+      <c r="U18" s="108"/>
+      <c r="V18" s="110"/>
+    </row>
+    <row r="19" spans="1:22" ht="16">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="45"/>
-      <c r="E19" s="126" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="124"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="124"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="130"/>
-      <c r="R19" s="124"/>
-      <c r="S19" s="123"/>
-      <c r="T19" s="124"/>
-      <c r="U19" s="123"/>
-      <c r="V19" s="125"/>
-    </row>
-    <row r="20" spans="1:22" ht="16.5" thickBot="1">
+      <c r="E19" s="111" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="109"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="109"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="109"/>
+      <c r="Q19" s="113"/>
+      <c r="R19" s="109"/>
+      <c r="S19" s="108"/>
+      <c r="T19" s="109"/>
+      <c r="U19" s="108"/>
+      <c r="V19" s="110"/>
+    </row>
+    <row r="20" spans="1:22" ht="17" thickBot="1">
       <c r="A20" s="46"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
       <c r="D20" s="48"/>
-      <c r="E20" s="135" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="132"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="132"/>
+      <c r="E20" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="103"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="103"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="103"/>
       <c r="Q20" s="49"/>
       <c r="R20" s="50"/>
       <c r="S20" s="51"/>
       <c r="T20" s="52"/>
-      <c r="U20" s="133"/>
-      <c r="V20" s="134"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A1:V2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:T3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="U17:V17"/>
@@ -3262,22 +3240,24 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:P17"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A1:V2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I3:T3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/potem30.xlsx
+++ b/template/potem30.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/print/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C626E71B-ED99-4A47-96CF-3DC91B12F491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BE8629D-B8C5-9246-964E-CD79676C0A63}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="560" windowWidth="32520" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="合同" sheetId="4" r:id="rId1"/>
     <sheet name="工作表1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">合同!$A$1:$I$47</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -1036,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1268,26 +1271,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1297,7 +1308,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1305,58 +1316,16 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,6 +1375,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1974,78 +1980,81 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33">
-      <c r="A1" s="100"/>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
+      <c r="A1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="83"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="91"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="91"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="82"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="91"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="82"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="91"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="82"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
     </row>
     <row r="6" spans="1:9" ht="24">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
     </row>
     <row r="7" spans="1:9" ht="16">
       <c r="A7" s="1"/>
@@ -2059,11 +2068,11 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="75" t="s">
@@ -2076,9 +2085,9 @@
       <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:9" ht="16">
-      <c r="A9" s="96"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="3"/>
       <c r="E9" s="53"/>
       <c r="F9" s="75"/>
@@ -2098,10 +2107,10 @@
       <c r="I10" s="53"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="96"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
       <c r="E11" s="53"/>
       <c r="F11" s="75"/>
       <c r="G11" s="75"/>
@@ -2120,10 +2129,10 @@
       <c r="I12" s="53"/>
     </row>
     <row r="13" spans="1:9" ht="16">
-      <c r="A13" s="96"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -2178,10 +2187,10 @@
       <c r="A18" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
       <c r="H18" s="77"/>
@@ -2196,11 +2205,11 @@
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
-      <c r="G19" s="88" t="s">
+      <c r="G19" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="H19" s="89"/>
-      <c r="I19" s="78" t="s">
+      <c r="H19" s="93"/>
+      <c r="I19" s="137" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2222,28 +2231,28 @@
       <c r="D21" s="75"/>
       <c r="E21" s="75"/>
       <c r="F21" s="59"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="82"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="83"/>
       <c r="I21" s="60"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="75"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="96"/>
       <c r="I22" s="75"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="75"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="75"/>
       <c r="H23" s="75"/>
       <c r="I23" s="75"/>
@@ -2301,13 +2310,13 @@
     <row r="28" spans="1:9">
       <c r="A28" s="75"/>
       <c r="B28" s="75"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="75"/>
@@ -2348,76 +2357,76 @@
       <c r="A32" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
       <c r="I32" s="75"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="75"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="75"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
       <c r="I35" s="75"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
       <c r="I36" s="75"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="77"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
       <c r="I37" s="75"/>
     </row>
     <row r="38" spans="1:9">
@@ -2446,34 +2455,34 @@
       <c r="A40" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="75"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="77"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="75"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="83"/>
       <c r="F42" s="75"/>
       <c r="G42" s="75"/>
       <c r="H42" s="75"/>
@@ -2483,10 +2492,10 @@
       <c r="A43" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
       <c r="F43" s="71"/>
       <c r="G43" s="71"/>
       <c r="H43" s="72"/>
@@ -2580,31 +2589,31 @@
       <c r="D51" s="75"/>
       <c r="E51" s="75"/>
       <c r="F51" s="75"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="75"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
       <c r="F52" s="75"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="80"/>
+      <c r="I52" s="80"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="75"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
       <c r="F53" s="75"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="80"/>
+      <c r="I53" s="80"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="75"/>
@@ -2619,18 +2628,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B40:H41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="B52:E53"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G53:I53"/>
     <mergeCell ref="B37:H37"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G21:H21"/>
@@ -2643,16 +2647,22 @@
     <mergeCell ref="B34:H34"/>
     <mergeCell ref="B35:H35"/>
     <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B40:H41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="B52:E53"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2667,125 +2677,125 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
     </row>
     <row r="3" spans="1:22" ht="17" thickBot="1">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="120"/>
+      <c r="F3" s="106"/>
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="122" t="s">
+      <c r="I3" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120"/>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
     </row>
     <row r="4" spans="1:22" ht="16">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="130"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="120"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="116"/>
       <c r="U4" s="7"/>
       <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22" ht="16">
-      <c r="A5" s="124"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="116" t="s">
+    <row r="5" spans="1:22">
+      <c r="A5" s="110"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="117"/>
+      <c r="E5" s="103"/>
       <c r="F5" s="9" t="s">
         <v>11</v>
       </c>
@@ -3107,107 +3117,141 @@
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
       <c r="D17" s="39"/>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="109"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="108"/>
-      <c r="V17" s="110"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="124"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="125"/>
     </row>
     <row r="18" spans="1:22" ht="16">
       <c r="A18" s="40"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="42"/>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="109"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="108"/>
-      <c r="V18" s="110"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="128"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="124"/>
+      <c r="S18" s="123"/>
+      <c r="T18" s="124"/>
+      <c r="U18" s="123"/>
+      <c r="V18" s="125"/>
     </row>
     <row r="19" spans="1:22" ht="16">
       <c r="A19" s="43"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="45"/>
-      <c r="E19" s="111" t="s">
+      <c r="E19" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="109"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="109"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="108"/>
-      <c r="T19" s="109"/>
-      <c r="U19" s="108"/>
-      <c r="V19" s="110"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="125"/>
     </row>
     <row r="20" spans="1:22" ht="17" thickBot="1">
       <c r="A20" s="46"/>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
       <c r="D20" s="48"/>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="103"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="132"/>
       <c r="Q20" s="49"/>
       <c r="R20" s="50"/>
       <c r="S20" s="51"/>
       <c r="T20" s="52"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="105"/>
+      <c r="U20" s="133"/>
+      <c r="V20" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="A1:V2"/>
     <mergeCell ref="A3:C3"/>
@@ -3224,40 +3268,6 @@
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
